--- a/rcads/data/xls/40_Scales.xlsx
+++ b/rcads/data/xls/40_Scales.xlsx
@@ -7,8 +7,11 @@
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="40_Scales"/>
+    <sheet sheetId="1" r:id="rId1" name="_40_Scales"/>
   </sheets>
+  <definedNames>
+    <definedName name="_40_Scales">'_40_Scales'!$A$1:$I$19</definedName>
+  </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
@@ -23,32 +26,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -56,36 +33,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,80 +43,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE7E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE7E6E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE7E6E6"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE7E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE7E6E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE7E6E6"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE7E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE7E6E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE7E6E6"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFill="1" applyProtection="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="left"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="general"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,652 +343,755 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="true" min="1" max="1" width="14.0625"/>
-    <col customWidth="true" min="2" max="2" width="49.94921875"/>
-    <col customWidth="true" min="3" max="3" width="23.875"/>
-    <col customWidth="true" min="4" max="4" width="27.390625"/>
-    <col customWidth="true" min="5" max="5" width="14.0625"/>
-    <col customWidth="true" min="6" max="6" width="49.8046875"/>
-    <col customWidth="true" min="7" max="7" width="14.0625"/>
-  </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>ScaleID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>ScaleName</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>ScaleConstruct</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>ScaleUpperConstruct</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="0" t="inlineStr">
         <is>
           <t>ItemN</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="0" t="inlineStr">
         <is>
           <t>ScaleShortName</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="0" t="inlineStr">
         <is>
           <t>ScaleInitials</t>
         </is>
       </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>InstrumentCollection</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>InstrumentLength</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>Social Phobia (9.1)</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="0" t="inlineStr">
         <is>
           <t>Social Anxiety</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>Anxiety</t>
         </is>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="0">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="0" t="inlineStr">
         <is>
           <t>Social Phobia</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="G2" s="0" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
       </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>47</v>
+      </c>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>Panic Disorder (9.1)</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>Panic</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>Anxiety</t>
         </is>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="0">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" s="0" t="inlineStr">
         <is>
           <t>Panic Disorder</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="G3" s="0" t="inlineStr">
         <is>
           <t>PD</t>
         </is>
       </c>
+      <c r="H3" s="0">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0">
+        <v>47</v>
+      </c>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>Generalized Anxiety Disorder (6.1)</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>Worry</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>Anxiety</t>
         </is>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="0">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="F4" s="0" t="inlineStr">
         <is>
           <t>Generalized Anxiety Disorder</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="G4" s="0" t="inlineStr">
         <is>
           <t>GAD</t>
         </is>
       </c>
+      <c r="H4" s="0">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0">
+        <v>47</v>
+      </c>
     </row>
     <row outlineLevel="0" r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="0">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>Major Depressive Disorder (10.1)</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>Depressed Mood</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>Depression</t>
         </is>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="0">
         <v>10</v>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="F5" s="0" t="inlineStr">
         <is>
           <t>Major Depressive Disorder</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="G5" s="0" t="inlineStr">
         <is>
           <t>MDD</t>
         </is>
       </c>
+      <c r="H5" s="0">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0">
+        <v>25</v>
+      </c>
     </row>
     <row outlineLevel="0" r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="0">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>Separation Anxiety Disorder (7.1)</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>Separation Anxiety</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>Anxiety</t>
         </is>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="0">
         <v>7</v>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="F6" s="0" t="inlineStr">
         <is>
           <t>Separation Anxiety Disorder</t>
         </is>
       </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="G6" s="0" t="inlineStr">
         <is>
           <t>SAD</t>
         </is>
       </c>
+      <c r="H6" s="0">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0">
+        <v>47</v>
+      </c>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="0">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>Obsessive Compulsive Disorder (6.1)</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="0" t="inlineStr">
         <is>
           <t>OCD</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>Anxiety</t>
         </is>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="0">
         <v>6</v>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="F7" s="0" t="inlineStr">
         <is>
           <t>Obsessive Compulsive Disorder</t>
         </is>
       </c>
-      <c r="G7" s="5" t="inlineStr">
+      <c r="G7" s="0" t="inlineStr">
         <is>
           <t>OCD</t>
         </is>
       </c>
+      <c r="H7" s="0">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0">
+        <v>47</v>
+      </c>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="0">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>Total Anxiety (37.1)</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="0" t="inlineStr">
         <is>
           <t>Anxiety</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>Anxiety</t>
         </is>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="0">
         <v>37</v>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="F8" s="0" t="inlineStr">
         <is>
           <t>Total Anxiety (37.1)</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="G8" s="0" t="inlineStr">
         <is>
           <t>ANX</t>
         </is>
       </c>
+      <c r="H8" s="0">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0">
+        <v>47</v>
+      </c>
     </row>
     <row outlineLevel="0" r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="0">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>Total Anxiety and Depression (47.1)</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="0" t="inlineStr">
         <is>
           <t>Negative Affect</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr">
         <is>
           <t>Negative Affect</t>
         </is>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="0">
         <v>47</v>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="F9" s="0" t="inlineStr">
         <is>
           <t>Total Anxiety and Depression (47.1)</t>
         </is>
       </c>
-      <c r="G9" s="5" t="inlineStr">
+      <c r="G9" s="0" t="inlineStr">
         <is>
           <t>ANXDEP</t>
         </is>
       </c>
+      <c r="H9" s="0">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0">
+        <v>47</v>
+      </c>
     </row>
     <row outlineLevel="0" r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="0">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>Total Anxiety (15.1)</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="0" t="inlineStr">
         <is>
           <t>Anxiety</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr">
         <is>
           <t>Anxiety</t>
         </is>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="0">
         <v>15</v>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="F10" s="0" t="inlineStr">
         <is>
           <t>Total Anxiety (15.1)</t>
         </is>
       </c>
-      <c r="G10" s="5" t="inlineStr">
+      <c r="G10" s="0" t="inlineStr">
         <is>
           <t>Anx15</t>
         </is>
       </c>
+      <c r="H10" s="0">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0">
+        <v>25</v>
+      </c>
     </row>
     <row outlineLevel="0" r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="0">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>Total Anxiety and Depression (25.1)</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" s="0" t="inlineStr">
         <is>
           <t>Negative Affect</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr">
         <is>
           <t>Negative Affect</t>
         </is>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="0">
         <v>25</v>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="F11" s="0" t="inlineStr">
         <is>
           <t>Total Anxiety and Depression (25.1)</t>
         </is>
       </c>
-      <c r="G11" s="5" t="inlineStr">
+      <c r="G11" s="0" t="inlineStr">
         <is>
           <t>AnxDep25</t>
         </is>
       </c>
+      <c r="H11" s="0">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0">
+        <v>25</v>
+      </c>
     </row>
     <row outlineLevel="0" r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="0">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>Total Depression (5.1)</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C12" s="0" t="inlineStr">
         <is>
           <t>Depression</t>
         </is>
       </c>
-      <c r="D12" s="5" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr">
         <is>
           <t>Depression</t>
         </is>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="0">
         <v>5</v>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="F12" s="0" t="inlineStr">
         <is>
           <t>Total Depression (5.1)</t>
         </is>
       </c>
-      <c r="G12" s="5" t="inlineStr">
+      <c r="G12" s="0" t="inlineStr">
         <is>
           <t>Dep5</t>
         </is>
       </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="0">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>Total Anxiety (20.1)</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C13" s="0" t="inlineStr">
         <is>
           <t>Anxiety</t>
         </is>
       </c>
-      <c r="D13" s="5" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr">
         <is>
           <t>Anxiety</t>
         </is>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="0">
         <v>20</v>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="F13" s="0" t="inlineStr">
         <is>
           <t>Total Anxiety (20.1)</t>
         </is>
       </c>
-      <c r="G13" s="5" t="inlineStr">
+      <c r="G13" s="0" t="inlineStr">
         <is>
           <t>Anx20</t>
         </is>
       </c>
+      <c r="H13" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="0">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B14" s="0" t="inlineStr">
         <is>
           <t>Relationship (7.1)</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="C14" s="0" t="inlineStr">
         <is>
           <t>Relationship</t>
         </is>
       </c>
-      <c r="D14" s="5" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="0">
         <v>7</v>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="F14" s="0" t="inlineStr">
         <is>
           <t>Relationship</t>
         </is>
       </c>
-      <c r="G14" s="5" t="inlineStr">
+      <c r="G14" s="0" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
+      <c r="H14" s="0">
+        <v>3</v>
+      </c>
+      <c r="I14" s="0">
+        <v>35</v>
+      </c>
     </row>
     <row outlineLevel="0" r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="0">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>Expectancy (7.1)</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="C15" s="0" t="inlineStr">
         <is>
           <t>Expectancy</t>
         </is>
       </c>
-      <c r="D15" s="5" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="0">
         <v>7</v>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="F15" s="0" t="inlineStr">
         <is>
           <t>Expectancy</t>
         </is>
       </c>
-      <c r="G15" s="5" t="inlineStr">
+      <c r="G15" s="0" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="H15" s="0">
+        <v>3</v>
+      </c>
+      <c r="I15" s="0">
+        <v>35</v>
+      </c>
     </row>
     <row outlineLevel="0" r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="0">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="B16" s="0" t="inlineStr">
         <is>
           <t>Attendance (7.1)</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="C16" s="0" t="inlineStr">
         <is>
           <t>Attendance</t>
         </is>
       </c>
-      <c r="D16" s="5" t="inlineStr">
+      <c r="D16" s="0" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="0">
         <v>7</v>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="F16" s="0" t="inlineStr">
         <is>
           <t>Attendance</t>
         </is>
       </c>
-      <c r="G16" s="5" t="inlineStr">
+      <c r="G16" s="0" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
+      <c r="H16" s="0">
+        <v>3</v>
+      </c>
+      <c r="I16" s="0">
+        <v>35</v>
+      </c>
     </row>
     <row outlineLevel="0" r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="0">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="B17" s="0" t="inlineStr">
         <is>
           <t>Clarity (7.1)</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="C17" s="0" t="inlineStr">
         <is>
           <t>Clarity</t>
         </is>
       </c>
-      <c r="D17" s="5" t="inlineStr">
+      <c r="D17" s="0" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="0">
         <v>7</v>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="F17" s="0" t="inlineStr">
         <is>
           <t>Clarity</t>
         </is>
       </c>
-      <c r="G17" s="5" t="inlineStr">
+      <c r="G17" s="0" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
+      <c r="H17" s="0">
+        <v>3</v>
+      </c>
+      <c r="I17" s="0">
+        <v>35</v>
+      </c>
     </row>
     <row outlineLevel="0" r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="0">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="B18" s="0" t="inlineStr">
         <is>
           <t>Homework (7.1)</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="C18" s="0" t="inlineStr">
         <is>
           <t>Homework</t>
         </is>
       </c>
-      <c r="D18" s="5" t="inlineStr">
+      <c r="D18" s="0" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="0">
         <v>7</v>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="F18" s="0" t="inlineStr">
         <is>
           <t>Homework</t>
         </is>
       </c>
-      <c r="G18" s="5" t="inlineStr">
+      <c r="G18" s="0" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
+      <c r="H18" s="0">
+        <v>3</v>
+      </c>
+      <c r="I18" s="0">
+        <v>35</v>
+      </c>
     </row>
     <row outlineLevel="0" r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="0">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="B19" s="0" t="inlineStr">
         <is>
           <t>Depression (9.1)</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="C19" s="0" t="inlineStr">
         <is>
           <t>Depression</t>
         </is>
       </c>
-      <c r="D19" s="5" t="inlineStr">
+      <c r="D19" s="0" t="inlineStr">
         <is>
           <t>Negative Affect</t>
         </is>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="0">
         <v>9</v>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="F19" s="0" t="inlineStr">
         <is>
           <t>Depression (9.1)</t>
         </is>
       </c>
-      <c r="G19" s="5" t="inlineStr">
+      <c r="G19" s="0" t="inlineStr">
         <is>
           <t>PHQ-9-Dep</t>
         </is>
+      </c>
+      <c r="H19" s="0">
+        <v>4</v>
+      </c>
+      <c r="I19" s="0">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
